--- a/Input/Runfiles/RiskDriverSimulation/MCDetails.xlsx
+++ b/Input/Runfiles/RiskDriverSimulation/MCDetails.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\Documents\CVA Tool Python\CVA-Tool\Risk Driver Simulation\Runfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\Documents\CVA Tool Python\CVA-Tool\Input\Runfiles\RiskDriverSimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F3D591-EB30-4C96-8C27-11EA09554AC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBCF8D1-F55C-4E4C-837B-64E6A0143874}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Valuation Date</t>
   </si>
@@ -59,14 +59,31 @@
   </si>
   <si>
     <t>correlationmatrix</t>
+  </si>
+  <si>
+    <t>Collateralized</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -94,9 +111,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,19 +395,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.109375" customWidth="1"/>
     <col min="2" max="3" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,8 +425,11 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43830</v>
       </c>
@@ -417,22 +440,34 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>1000</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7E655397-196A-4AC1-B498-1CFDE10FCDAD}">
           <x14:formula1>
             <xm:f>Sheet1!$A$1:$A$5</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{992BB001-29B2-4C55-8E08-30EEE0AE7C2B}">
+          <x14:formula1>
+            <xm:f>Sheet1!$C$1:$C$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -442,35 +477,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C22E4BA-407C-452A-B4DF-752D553CF65C}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>

--- a/Input/Runfiles/RiskDriverSimulation/MCDetails.xlsx
+++ b/Input/Runfiles/RiskDriverSimulation/MCDetails.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\Documents\CVA Tool Python\CVA-Tool\Input\Runfiles\RiskDriverSimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBCF8D1-F55C-4E4C-837B-64E6A0143874}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8B2407-29F3-4CA7-8725-1A426CDE29F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-6465" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -398,7 +398,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,7 +440,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>10</v>

--- a/Input/Runfiles/RiskDriverSimulation/MCDetails.xlsx
+++ b/Input/Runfiles/RiskDriverSimulation/MCDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\Documents\CVA Tool Python\CVA-Tool\Input\Runfiles\RiskDriverSimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8B2407-29F3-4CA7-8725-1A426CDE29F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0230ED0-8448-40D6-967D-D64BCFAFDF9E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-6465" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,16 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -398,13 +404,14 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.109375" customWidth="1"/>
     <col min="2" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" customWidth="1"/>
   </cols>
@@ -431,10 +438,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43830</v>
+        <v>44165</v>
       </c>
       <c r="B2" s="1">
-        <v>47583</v>
+        <v>49331</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -446,7 +453,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
